--- a/smm_revision_3/SMM-REVISION-3.xlsx
+++ b/smm_revision_3/SMM-REVISION-3.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
   <si>
     <t>Input Data</t>
   </si>
@@ -183,9 +183,6 @@
     <t>PCO</t>
   </si>
   <si>
-    <t>DOUBLE TOP</t>
-  </si>
-  <si>
     <t>19-02-2020 (Daily)</t>
   </si>
   <si>
@@ -224,6 +221,15 @@
   </si>
   <si>
     <t>MACD &amp; STOCHASTIC SHOWING CONTRADICTORY.</t>
+  </si>
+  <si>
+    <t>FLAG &amp; POLE</t>
+  </si>
+  <si>
+    <t>T1=1:0.5</t>
+  </si>
+  <si>
+    <t>T2=1:0.72</t>
   </si>
 </sst>
 </file>
@@ -353,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -379,6 +385,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -388,12 +430,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -406,41 +448,11 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,32 +985,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="19" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1007,14 +1019,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>63</v>
+      <c r="D2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1022,14 +1034,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>64</v>
+      <c r="D3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1037,26 +1049,26 @@
         <v>3</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="21">
+      <c r="C4" s="13">
         <v>2051</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="13">
         <v>154.69999999999999</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="13">
         <v>270.7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1065,14 +1077,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>65</v>
+      <c r="E6" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1080,13 +1092,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1095,13 +1107,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1110,13 +1122,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1125,13 +1137,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="C10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1140,11 +1152,13 @@
         <v>32</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="15">
+        <v>61.8</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1153,11 +1167,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="C12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1166,11 +1182,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="C13" s="14">
+        <v>1700</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1179,11 +1197,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="20">
+      <c r="C14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="12">
         <v>157.69999999999999</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1192,11 +1212,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="20">
+      <c r="C15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="12">
         <v>106.05</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1205,11 +1227,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="20" t="s">
+      <c r="C16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1218,39 +1242,45 @@
         <v>15</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="20">
+      <c r="C17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="12">
         <v>157.69999999999999</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="20">
+      <c r="C18" s="8">
+        <v>2258.64</v>
+      </c>
+      <c r="D18" s="12">
         <v>157.44999999999999</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="20">
+      <c r="C19" s="8">
+        <v>2306.58</v>
+      </c>
+      <c r="D19" s="12">
         <v>106.05</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1261,26 +1291,30 @@
       <c r="B20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="20">
+      <c r="C20" s="8">
+        <v>207.64</v>
+      </c>
+      <c r="D20" s="12">
         <v>2.75</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="20">
+      <c r="C21" s="8">
+        <v>255.58</v>
+      </c>
+      <c r="D21" s="12">
         <v>48.65</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1290,8 +1324,8 @@
         <v>39</v>
       </c>
       <c r="C22" s="8"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20" t="s">
+      <c r="D22" s="12"/>
+      <c r="E22" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1300,39 +1334,45 @@
         <v>20</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="20">
+      <c r="C23" s="8">
+        <v>351</v>
+      </c>
+      <c r="D23" s="12">
         <v>30.2</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="20" t="s">
+      <c r="C24" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="20" t="s">
+      <c r="C25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1342,36 +1382,40 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="20">
+      <c r="C27" s="30">
         <v>100000</v>
       </c>
-      <c r="E27" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="20">
+      <c r="C28" s="30">
         <v>100000</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="D28" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1382,138 +1426,168 @@
       <c r="B29" s="4">
         <v>0.02</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="20">
+      <c r="C29" s="31">
+        <f>C27*2%</f>
         <v>2000</v>
       </c>
-      <c r="E29" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="20">
+      <c r="C30" s="30">
+        <v>5.69</v>
+      </c>
+      <c r="D30" s="12">
         <v>666</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="30"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="20">
+      <c r="C32" s="30">
+        <f>C28</f>
         <v>100000</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="12">
+        <v>100000</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="20">
+      <c r="C33" s="30">
+        <v>5</v>
+      </c>
+      <c r="D33" s="12">
         <v>666</v>
       </c>
-      <c r="E33" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="6"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="20">
+      <c r="C34" s="31">
+        <v>1755</v>
+      </c>
+      <c r="D34" s="12">
         <v>1998</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="20">
+      <c r="C35" s="30">
+        <v>1038.2</v>
+      </c>
+      <c r="D35" s="12">
         <v>1831.5</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="20">
+      <c r="C36" s="30">
+        <v>1277.2</v>
+      </c>
+      <c r="D36" s="12">
         <v>32400.9</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="30">
+        <v>0</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="6"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="20">
+      <c r="C38" s="30">
+        <f>(C35/C32)*100</f>
+        <v>1.0382</v>
+      </c>
+      <c r="D38" s="12">
         <v>1.83</v>
       </c>
-      <c r="E38" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="6"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="20">
+      <c r="C39" s="30">
+        <f>(C36/C32)*100</f>
+        <v>1.2772000000000001</v>
+      </c>
+      <c r="D39" s="12">
         <v>32.4</v>
       </c>
-      <c r="E39" s="20" t="s">
-        <v>36</v>
+      <c r="E39" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C40" s="30">
+        <f>(C37/C35)*100</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1532,7 +1606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -1551,45 +1627,45 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="A2" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
     </row>
     <row r="30" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+    </row>
+    <row r="58" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A58" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="58" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A58" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1614,46 +1690,46 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+    </row>
+    <row r="33" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A33" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-    </row>
-    <row r="33" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/smm_revision_3/SMM-REVISION-3.xlsx
+++ b/smm_revision_3/SMM-REVISION-3.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Trade Details" sheetId="3" r:id="rId1"/>
-    <sheet name="AVENUE Supermarts" sheetId="13" r:id="rId2"/>
-    <sheet name="TATA Mortors" sheetId="14" r:id="rId3"/>
-    <sheet name="RELIANCE INFRA" sheetId="15" r:id="rId4"/>
+    <sheet name="TATA Mortors" sheetId="14" r:id="rId2"/>
+    <sheet name="RELIANCE INFRA" sheetId="15" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>Input Data</t>
   </si>
@@ -65,12 +65,6 @@
   </si>
   <si>
     <t>STOP LOSS (SL)</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>MAX</t>
   </si>
   <si>
     <t>REWARD (Min)
@@ -138,21 +132,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>Calculated based on T2</t>
-  </si>
-  <si>
-    <t>Calculated based on T3</t>
-  </si>
-  <si>
     <t>NCO</t>
   </si>
   <si>
@@ -163,24 +142,6 @@
   </si>
   <si>
     <t>BEARISH</t>
-  </si>
-  <si>
-    <t>AVENUE Supermarts</t>
-  </si>
-  <si>
-    <t>30-01-2020 (Daily)</t>
-  </si>
-  <si>
-    <t>BUY</t>
-  </si>
-  <si>
-    <t>BULLISH</t>
-  </si>
-  <si>
-    <t>HEAVY</t>
-  </si>
-  <si>
-    <t>PCO</t>
   </si>
   <si>
     <t>19-02-2020 (Daily)</t>
@@ -221,6 +182,24 @@
   </si>
   <si>
     <t>MACD &amp; STOCHASTIC SHOWING CONTRADICTORY.</t>
+  </si>
+  <si>
+    <t>30-01-2020 (Daily)</t>
+  </si>
+  <si>
+    <t>AVENUE Supermarts</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>BULLISH</t>
+  </si>
+  <si>
+    <t>HEAVY</t>
+  </si>
+  <si>
+    <t>PCO</t>
   </si>
   <si>
     <t>FLAG &amp; POLE</t>
@@ -235,8 +214,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -370,9 +349,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -382,77 +358,77 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,10 +467,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -535,10 +511,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -579,10 +555,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -628,10 +604,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -672,10 +648,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -773,7 +749,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -808,7 +783,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -984,609 +958,549 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="41.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="C2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="C3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="13">
+      <c r="B4" s="10">
         <v>2051</v>
       </c>
-      <c r="D4" s="13">
+      <c r="C4" s="10">
         <v>154.69999999999999</v>
       </c>
-      <c r="E4" s="13">
+      <c r="D4" s="10">
         <v>270.7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="B6" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="25">
+        <v>61.8</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24">
+        <v>1700</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="9">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="9">
+        <v>106.05</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="9">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="26">
+        <v>2258.64</v>
+      </c>
+      <c r="C18" s="9">
+        <v>157.44999999999999</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="55.5" customHeight="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="26">
+        <v>2306.58</v>
+      </c>
+      <c r="C19" s="9">
+        <v>106.05</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="45">
+      <c r="A20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="26">
+        <v>207.64</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1">
+      <c r="A21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="26">
+        <v>255.58</v>
+      </c>
+      <c r="C21" s="9">
+        <v>48.65</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30">
+      <c r="A23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="26">
+        <v>351</v>
+      </c>
+      <c r="C23" s="9">
+        <v>30.2</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="54.75" customHeight="1">
+      <c r="A25" s="15"/>
+      <c r="B25" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="61.5" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="D26" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75">
+      <c r="A27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="28">
+        <v>100000</v>
+      </c>
+      <c r="C27" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="28">
+        <v>100000</v>
+      </c>
+      <c r="C28" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30">
+      <c r="A29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="29">
+        <f>B27*2%</f>
+        <v>2000</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75">
+      <c r="A30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="28">
+        <v>5.69</v>
+      </c>
+      <c r="C30" s="9">
+        <v>666</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75">
+      <c r="A31" s="4"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75">
+      <c r="A32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="28">
+        <f>B28</f>
+        <v>100000</v>
+      </c>
+      <c r="C32" s="9">
+        <v>100000</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75">
+      <c r="A33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="28">
+        <v>5</v>
+      </c>
+      <c r="C33" s="9">
+        <v>666</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75">
+      <c r="A34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="29">
+        <v>1755</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1998</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75">
+      <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="15">
-        <v>61.8</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="14">
-        <v>1700</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="12">
-        <v>157.69999999999999</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="12">
-        <v>106.05</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="12">
-        <v>157.69999999999999</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="B35" s="28">
+        <v>1038.2</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1831.5</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="38.25" customHeight="1">
+      <c r="A36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2258.64</v>
-      </c>
-      <c r="D18" s="12">
-        <v>157.44999999999999</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="8">
-        <v>2306.58</v>
-      </c>
-      <c r="D19" s="12">
-        <v>106.05</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="8">
-        <v>207.64</v>
-      </c>
-      <c r="D20" s="12">
-        <v>2.75</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="8">
-        <v>255.58</v>
-      </c>
-      <c r="D21" s="12">
-        <v>48.65</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8">
-        <v>351</v>
-      </c>
-      <c r="D23" s="12">
-        <v>30.2</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="30">
-        <v>100000</v>
-      </c>
-      <c r="D27" s="12">
-        <v>100000</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="30">
-        <v>100000</v>
-      </c>
-      <c r="D28" s="12">
-        <v>100000</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="C29" s="31">
-        <f>C27*2%</f>
-        <v>2000</v>
-      </c>
-      <c r="D29" s="12">
-        <v>2000</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="30">
-        <v>5.69</v>
-      </c>
-      <c r="D30" s="12">
-        <v>666</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="30">
-        <f>C28</f>
-        <v>100000</v>
-      </c>
-      <c r="D32" s="12">
-        <v>100000</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="B36" s="28">
+        <v>1277.2</v>
+      </c>
+      <c r="C36" s="9">
+        <v>32400.9</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75">
+      <c r="A37" s="18"/>
+      <c r="B37" s="28">
+        <v>0</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75">
+      <c r="A38" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="30">
-        <v>5</v>
-      </c>
-      <c r="D33" s="12">
-        <v>666</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="B38" s="28">
+        <f>(B35/B32)*100</f>
+        <v>1.0382</v>
+      </c>
+      <c r="C38" s="9">
+        <v>1.83</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75">
+      <c r="A39" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="31">
-        <v>1755</v>
-      </c>
-      <c r="D34" s="12">
-        <v>1998</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="30">
-        <v>1038.2</v>
-      </c>
-      <c r="D35" s="12">
-        <v>1831.5</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="30">
-        <v>1277.2</v>
-      </c>
-      <c r="D36" s="12">
-        <v>32400.9</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="30">
-        <v>0</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="30">
-        <f>(C35/C32)*100</f>
-        <v>1.0382</v>
-      </c>
-      <c r="D38" s="12">
-        <v>1.83</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="30">
-        <f>(C36/C32)*100</f>
+      <c r="B39" s="28">
+        <f>(B36/B32)*100</f>
         <v>1.2772000000000001</v>
       </c>
-      <c r="D39" s="12">
+      <c r="C39" s="9">
         <v>32.4</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C40" s="30">
-        <f>(C37/C35)*100</f>
+      <c r="D39" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75">
+      <c r="B40" s="28">
+        <f>(B37/B35)*100</f>
         <v>0</v>
       </c>
     </row>
@@ -1603,69 +1517,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="X56" sqref="X56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="30" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A30" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-    </row>
-    <row r="58" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="A58" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
+    <row r="2" spans="1:9" ht="18.75">
+      <c r="A2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.25">
+      <c r="A30" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="58" spans="1:11" ht="21">
+      <c r="A58" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1679,57 +1579,57 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-    </row>
-    <row r="33" spans="1:17" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A33" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
+    <row r="2" spans="1:17" ht="26.25">
+      <c r="A2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+    </row>
+    <row r="33" spans="1:17" ht="26.25">
+      <c r="A33" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1739,4 +1639,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>